--- a/visualizations/mean_all_info_heating.xlsx
+++ b/visualizations/mean_all_info_heating.xlsx
@@ -461,7 +461,7 @@
         <v>31.03588685000054</v>
       </c>
       <c r="D2" t="n">
-        <v>120.9740729060383</v>
+        <v>124.0988590466744</v>
       </c>
     </row>
     <row r="3">
@@ -469,13 +469,13 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>101.7753319500007</v>
+        <v>102.1607746500011</v>
       </c>
       <c r="D3" t="n">
-        <v>112.076463677843</v>
+        <v>114.986161301832</v>
       </c>
     </row>
     <row r="4">
@@ -483,13 +483,13 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>19</v>
       </c>
       <c r="C4" t="n">
-        <v>181.5678911500003</v>
+        <v>181.9533338500007</v>
       </c>
       <c r="D4" t="n">
-        <v>112.0755578132838</v>
+        <v>114.5686784684949</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>312.5842677500011</v>
       </c>
       <c r="D5" t="n">
-        <v>103.2866856784341</v>
+        <v>105.8799120950807</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>404.2666151000018</v>
       </c>
       <c r="D6" t="n">
-        <v>73.70744225578017</v>
+        <v>76.20043765007235</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>421.7112789500016</v>
       </c>
       <c r="D7" t="n">
-        <v>73.34851305041893</v>
+        <v>75.8383381349549</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>480.6051788500009</v>
       </c>
       <c r="D8" t="n">
-        <v>72.74344376557065</v>
+        <v>75.2279244617752</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>808.4460394500002</v>
       </c>
       <c r="D9" t="n">
-        <v>72.61276624594696</v>
+        <v>75.09609270836603</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1293.29590675</v>
       </c>
       <c r="D10" t="n">
-        <v>72.22802765696419</v>
+        <v>74.70795584338889</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1581.354259500001</v>
       </c>
       <c r="D11" t="n">
-        <v>71.26173666739459</v>
+        <v>73.73312990679953</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1672.933951250001</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02092640764135</v>
+        <v>71.98668554822081</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1686.584306900001</v>
       </c>
       <c r="D13" t="n">
-        <v>69.79113870985684</v>
+        <v>71.75498376218047</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1705.761583200001</v>
       </c>
       <c r="D14" t="n">
-        <v>69.65744081241598</v>
+        <v>71.62017218642778</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1752.354121300002</v>
       </c>
       <c r="D15" t="n">
-        <v>69.54608616849707</v>
+        <v>71.50788997929203</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1832.550988750003</v>
       </c>
       <c r="D16" t="n">
-        <v>69.43516879051076</v>
+        <v>71.39604868043159</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1916.583965000003</v>
       </c>
       <c r="D17" t="n">
-        <v>69.4061032454856</v>
+        <v>71.36674102488917</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1999.568722800002</v>
       </c>
       <c r="D18" t="n">
-        <v>69.3533734508103</v>
+        <v>71.31357200095269</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>2430.899536050001</v>
       </c>
       <c r="D19" t="n">
-        <v>69.19528795535228</v>
+        <v>71.15416968308342</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>2834.3480817</v>
       </c>
       <c r="D20" t="n">
-        <v>68.98386938056805</v>
+        <v>70.94099003137926</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>2953.035025550001</v>
       </c>
       <c r="D21" t="n">
-        <v>68.02145784758618</v>
+        <v>69.97056179153985</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>3059.570173650001</v>
       </c>
       <c r="D22" t="n">
-        <v>67.08566446157</v>
+        <v>68.7246714912639</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>3072.98135555</v>
       </c>
       <c r="D23" t="n">
-        <v>67.081855844953</v>
+        <v>68.72083232133369</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>3088.95321975</v>
       </c>
       <c r="D24" t="n">
-        <v>67.02103772624456</v>
+        <v>68.65952631024352</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>3103.581574750001</v>
       </c>
       <c r="D25" t="n">
-        <v>66.94520276744265</v>
+        <v>68.58308299163964</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>3121.662657700001</v>
       </c>
       <c r="D26" t="n">
-        <v>66.5643225703251</v>
+        <v>68.19914731450348</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>3165.02391395</v>
       </c>
       <c r="D27" t="n">
-        <v>66.47517044817732</v>
+        <v>68.10928000020374</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>3257.862032449999</v>
       </c>
       <c r="D28" t="n">
-        <v>66.4033877395736</v>
+        <v>68.03692143957757</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>3354.749565099999</v>
       </c>
       <c r="D29" t="n">
-        <v>66.37034158771499</v>
+        <v>68.00361018636306</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>3399.043628699999</v>
       </c>
       <c r="D30" t="n">
-        <v>66.31346336041747</v>
+        <v>67.94627567310394</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>3508.499813949999</v>
       </c>
       <c r="D31" t="n">
-        <v>66.29985323595918</v>
+        <v>67.93255636611616</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>3971.221430399999</v>
       </c>
       <c r="D32" t="n">
-        <v>66.12940284206843</v>
+        <v>67.76073859272751</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>4513.554228349999</v>
       </c>
       <c r="D33" t="n">
-        <v>66.06765775406343</v>
+        <v>67.69849817604948</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>4806.063114249999</v>
       </c>
       <c r="D34" t="n">
-        <v>66.05384513358936</v>
+        <v>67.68457474859153</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>4963.7212832</v>
       </c>
       <c r="D35" t="n">
-        <v>65.53773708124019</v>
+        <v>67.16432639739435</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>5023.29335485</v>
       </c>
       <c r="D36" t="n">
-        <v>65.17385383130977</v>
+        <v>66.797524019592</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/mean_all_info_heating.xlsx
+++ b/visualizations/mean_all_info_heating.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/visualizations/mean_all_info_heating.xlsx
+++ b/visualizations/mean_all_info_heating.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
         <v>31.03588685000054</v>
       </c>
       <c r="D2" t="n">
-        <v>120.9740729060383</v>
+        <v>120.7114695641766</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>101.7753319500007</v>
       </c>
       <c r="D3" t="n">
-        <v>112.076463677843</v>
+        <v>111.8753144741339</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>181.5678911500003</v>
       </c>
       <c r="D4" t="n">
-        <v>112.0755578132838</v>
+        <v>111.8330232313298</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>312.5842677500011</v>
       </c>
       <c r="D5" t="n">
-        <v>103.2866856784341</v>
+        <v>103.0721123017533</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>404.2666151000018</v>
       </c>
       <c r="D6" t="n">
-        <v>73.70744225578017</v>
+        <v>73.50003484837279</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>421.7112789500016</v>
       </c>
       <c r="D7" t="n">
-        <v>73.34851305041893</v>
+        <v>73.14110564301146</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>480.6051788500009</v>
       </c>
       <c r="D8" t="n">
-        <v>72.74344376557065</v>
+        <v>72.53603635816313</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>808.4460394500002</v>
       </c>
       <c r="D9" t="n">
-        <v>72.61276624594696</v>
+        <v>72.4053588385395</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1293.29590675</v>
       </c>
       <c r="D10" t="n">
-        <v>72.22802765696419</v>
+        <v>72.02062024955674</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1581.354259500001</v>
       </c>
       <c r="D11" t="n">
-        <v>71.26173666739459</v>
+        <v>71.0543292599872</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1672.933951250001</v>
       </c>
       <c r="D12" t="n">
-        <v>70.02092640764135</v>
+        <v>69.86281313742046</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1686.584306900001</v>
       </c>
       <c r="D13" t="n">
-        <v>69.79113870985684</v>
+        <v>69.63302543963597</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1705.761583200001</v>
       </c>
       <c r="D14" t="n">
-        <v>69.65744081241598</v>
+        <v>69.49932754219512</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1752.354121300002</v>
       </c>
       <c r="D15" t="n">
-        <v>69.54608616849707</v>
+        <v>69.3879728982762</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1832.550988750003</v>
       </c>
       <c r="D16" t="n">
-        <v>69.43516879051076</v>
+        <v>69.27705552028992</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1916.583965000003</v>
       </c>
       <c r="D17" t="n">
-        <v>69.4061032454856</v>
+        <v>69.24798997526473</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1999.568722800002</v>
       </c>
       <c r="D18" t="n">
-        <v>69.3533734508103</v>
+        <v>69.1952601805894</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>2430.899536050001</v>
       </c>
       <c r="D19" t="n">
-        <v>69.19528795535228</v>
+        <v>69.03717468513139</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>2834.3480817</v>
       </c>
       <c r="D20" t="n">
-        <v>68.98386938056805</v>
+        <v>68.82575611034714</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>2953.035025550001</v>
       </c>
       <c r="D21" t="n">
-        <v>68.02145784758618</v>
+        <v>67.8633445773653</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>3059.570173650001</v>
       </c>
       <c r="D22" t="n">
-        <v>67.08566446157</v>
+        <v>66.95791352222486</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>3072.98135555</v>
       </c>
       <c r="D23" t="n">
-        <v>67.081855844953</v>
+        <v>66.95410490560782</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>3088.95321975</v>
       </c>
       <c r="D24" t="n">
-        <v>67.02103772624456</v>
+        <v>66.89328678689945</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>3103.581574750001</v>
       </c>
       <c r="D25" t="n">
-        <v>66.94520276744265</v>
+        <v>66.81745182809752</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>3121.662657700001</v>
       </c>
       <c r="D26" t="n">
-        <v>66.5643225703251</v>
+        <v>66.43657163097996</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>3165.02391395</v>
       </c>
       <c r="D27" t="n">
-        <v>66.47517044817732</v>
+        <v>66.34741950883222</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>3257.862032449999</v>
       </c>
       <c r="D28" t="n">
-        <v>66.4033877395736</v>
+        <v>66.2756368002285</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>3354.749565099999</v>
       </c>
       <c r="D29" t="n">
-        <v>66.37034158771499</v>
+        <v>66.24259064836983</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>3399.043628699999</v>
       </c>
       <c r="D30" t="n">
-        <v>66.31346336041747</v>
+        <v>66.18571242107234</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>3508.499813949999</v>
       </c>
       <c r="D31" t="n">
-        <v>66.29985323595918</v>
+        <v>66.17210229661404</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>3971.221430399999</v>
       </c>
       <c r="D32" t="n">
-        <v>66.12940284206843</v>
+        <v>66.00165190272328</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>4513.554228349999</v>
       </c>
       <c r="D33" t="n">
-        <v>66.06765775406343</v>
+        <v>65.93990681471828</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>4806.063114249999</v>
       </c>
       <c r="D34" t="n">
-        <v>66.05384513358936</v>
+        <v>65.92609419424426</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>4963.7212832</v>
       </c>
       <c r="D35" t="n">
-        <v>65.53773708124019</v>
+        <v>65.40998614189506</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>5023.29335485</v>
       </c>
       <c r="D36" t="n">
-        <v>65.17385383130977</v>
+        <v>65.04610289196461</v>
       </c>
     </row>
   </sheetData>

--- a/visualizations/mean_all_info_heating.xlsx
+++ b/visualizations/mean_all_info_heating.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -461,7 +461,7 @@
         <v>31.03588685000054</v>
       </c>
       <c r="D2" t="n">
-        <v>124.0988590466744</v>
+        <v>123.7222369892809</v>
       </c>
     </row>
     <row r="3">
@@ -475,7 +475,7 @@
         <v>102.1607746500011</v>
       </c>
       <c r="D3" t="n">
-        <v>114.986161301832</v>
+        <v>114.6383215805359</v>
       </c>
     </row>
     <row r="4">
@@ -489,7 +489,7 @@
         <v>181.9533338500007</v>
       </c>
       <c r="D4" t="n">
-        <v>114.5686784684949</v>
+        <v>114.2801498524569</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         <v>312.5842677500011</v>
       </c>
       <c r="D5" t="n">
-        <v>105.8799120950807</v>
+        <v>105.5721739451605</v>
       </c>
     </row>
     <row r="6">
@@ -517,7 +517,7 @@
         <v>404.2666151000018</v>
       </c>
       <c r="D6" t="n">
-        <v>76.20043765007235</v>
+        <v>75.90304917075213</v>
       </c>
     </row>
     <row r="7">
@@ -531,7 +531,7 @@
         <v>421.7112789500016</v>
       </c>
       <c r="D7" t="n">
-        <v>75.8383381349549</v>
+        <v>75.54094965563452</v>
       </c>
     </row>
     <row r="8">
@@ -545,7 +545,7 @@
         <v>480.6051788500009</v>
       </c>
       <c r="D8" t="n">
-        <v>75.2279244617752</v>
+        <v>74.93053598245478</v>
       </c>
     </row>
     <row r="9">
@@ -559,7 +559,7 @@
         <v>808.4460394500002</v>
       </c>
       <c r="D9" t="n">
-        <v>75.09609270836603</v>
+        <v>74.79870422904571</v>
       </c>
     </row>
     <row r="10">
@@ -573,7 +573,7 @@
         <v>1293.29590675</v>
       </c>
       <c r="D10" t="n">
-        <v>74.70795584338889</v>
+        <v>74.41056736406857</v>
       </c>
     </row>
     <row r="11">
@@ -587,7 +587,7 @@
         <v>1581.354259500001</v>
       </c>
       <c r="D11" t="n">
-        <v>73.73312990679953</v>
+        <v>73.4357414274793</v>
       </c>
     </row>
     <row r="12">
@@ -601,7 +601,7 @@
         <v>1672.933951250001</v>
       </c>
       <c r="D12" t="n">
-        <v>71.98668554822081</v>
+        <v>71.75992169704649</v>
       </c>
     </row>
     <row r="13">
@@ -615,7 +615,7 @@
         <v>1686.584306900001</v>
       </c>
       <c r="D13" t="n">
-        <v>71.75498376218047</v>
+        <v>71.5282199110062</v>
       </c>
     </row>
     <row r="14">
@@ -629,7 +629,7 @@
         <v>1705.761583200001</v>
       </c>
       <c r="D14" t="n">
-        <v>71.62017218642778</v>
+        <v>71.3934083352535</v>
       </c>
     </row>
     <row r="15">
@@ -643,7 +643,7 @@
         <v>1752.354121300002</v>
       </c>
       <c r="D15" t="n">
-        <v>71.50788997929203</v>
+        <v>71.28112612811775</v>
       </c>
     </row>
     <row r="16">
@@ -657,7 +657,7 @@
         <v>1832.550988750003</v>
       </c>
       <c r="D16" t="n">
-        <v>71.39604868043159</v>
+        <v>71.16928482925738</v>
       </c>
     </row>
     <row r="17">
@@ -671,7 +671,7 @@
         <v>1916.583965000003</v>
       </c>
       <c r="D17" t="n">
-        <v>71.36674102488917</v>
+        <v>71.13997717371488</v>
       </c>
     </row>
     <row r="18">
@@ -685,7 +685,7 @@
         <v>1999.568722800002</v>
       </c>
       <c r="D18" t="n">
-        <v>71.31357200095269</v>
+        <v>71.08680814977839</v>
       </c>
     </row>
     <row r="19">
@@ -699,7 +699,7 @@
         <v>2430.899536050001</v>
       </c>
       <c r="D19" t="n">
-        <v>71.15416968308342</v>
+        <v>70.92740583190911</v>
       </c>
     </row>
     <row r="20">
@@ -713,7 +713,7 @@
         <v>2834.3480817</v>
       </c>
       <c r="D20" t="n">
-        <v>70.94099003137926</v>
+        <v>70.71422618020493</v>
       </c>
     </row>
     <row r="21">
@@ -727,7 +727,7 @@
         <v>2953.035025550001</v>
       </c>
       <c r="D21" t="n">
-        <v>69.97056179153985</v>
+        <v>69.74379794036555</v>
       </c>
     </row>
     <row r="22">
@@ -741,7 +741,7 @@
         <v>3059.570173650001</v>
       </c>
       <c r="D22" t="n">
-        <v>68.7246714912639</v>
+        <v>68.54142541796547</v>
       </c>
     </row>
     <row r="23">
@@ -755,7 +755,7 @@
         <v>3072.98135555</v>
       </c>
       <c r="D23" t="n">
-        <v>68.72083232133369</v>
+        <v>68.53758624803521</v>
       </c>
     </row>
     <row r="24">
@@ -769,7 +769,7 @@
         <v>3088.95321975</v>
       </c>
       <c r="D24" t="n">
-        <v>68.65952631024352</v>
+        <v>68.47628023694514</v>
       </c>
     </row>
     <row r="25">
@@ -783,7 +783,7 @@
         <v>3103.581574750001</v>
       </c>
       <c r="D25" t="n">
-        <v>68.58308299163964</v>
+        <v>68.39983691834122</v>
       </c>
     </row>
     <row r="26">
@@ -797,7 +797,7 @@
         <v>3121.662657700001</v>
       </c>
       <c r="D26" t="n">
-        <v>68.19914731450348</v>
+        <v>68.01590124120504</v>
       </c>
     </row>
     <row r="27">
@@ -811,7 +811,7 @@
         <v>3165.02391395</v>
       </c>
       <c r="D27" t="n">
-        <v>68.10928000020374</v>
+        <v>67.92603392690538</v>
       </c>
     </row>
     <row r="28">
@@ -825,7 +825,7 @@
         <v>3257.862032449999</v>
       </c>
       <c r="D28" t="n">
-        <v>68.03692143957757</v>
+        <v>67.85367536627919</v>
       </c>
     </row>
     <row r="29">
@@ -839,7 +839,7 @@
         <v>3354.749565099999</v>
       </c>
       <c r="D29" t="n">
-        <v>68.00361018636306</v>
+        <v>67.8203641130646</v>
       </c>
     </row>
     <row r="30">
@@ -853,7 +853,7 @@
         <v>3399.043628699999</v>
       </c>
       <c r="D30" t="n">
-        <v>67.94627567310394</v>
+        <v>67.76302959980552</v>
       </c>
     </row>
     <row r="31">
@@ -867,7 +867,7 @@
         <v>3508.499813949999</v>
       </c>
       <c r="D31" t="n">
-        <v>67.93255636611616</v>
+        <v>67.74931029281774</v>
       </c>
     </row>
     <row r="32">
@@ -881,7 +881,7 @@
         <v>3971.221430399999</v>
       </c>
       <c r="D32" t="n">
-        <v>67.76073859272751</v>
+        <v>67.57749251942909</v>
       </c>
     </row>
     <row r="33">
@@ -895,7 +895,7 @@
         <v>4513.554228349999</v>
       </c>
       <c r="D33" t="n">
-        <v>67.69849817604948</v>
+        <v>67.51525210275105</v>
       </c>
     </row>
     <row r="34">
@@ -909,7 +909,7 @@
         <v>4806.063114249999</v>
       </c>
       <c r="D34" t="n">
-        <v>67.68457474859153</v>
+        <v>67.50132867529315</v>
       </c>
     </row>
     <row r="35">
@@ -923,7 +923,7 @@
         <v>4963.7212832</v>
       </c>
       <c r="D35" t="n">
-        <v>67.16432639739435</v>
+        <v>66.98108032409593</v>
       </c>
     </row>
     <row r="36">
@@ -937,7 +937,7 @@
         <v>5023.29335485</v>
       </c>
       <c r="D36" t="n">
-        <v>66.797524019592</v>
+        <v>66.61427794629357</v>
       </c>
     </row>
   </sheetData>
